--- a/baseCaseOM/WMU42_StonesSheep_baseCase.xlsx
+++ b/baseCaseOM/WMU42_StonesSheep_baseCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" state="visible" r:id="rId2"/>
@@ -1244,8 +1244,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,26 +1523,14 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,7 +1773,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="B14:C15 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2423,7 +2411,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="B14:C15 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2756,8 +2744,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="B14:C15 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2865,7 +2853,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/baseCaseOM/WMU42_StonesSheep_baseCase.xlsx
+++ b/baseCaseOM/WMU42_StonesSheep_baseCase.xlsx
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t xml:space="preserve">Slot</t>
   </si>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">StonesSheep_WMU42</t>
+    <t xml:space="preserve">StonesSheep_WMU42_baseCase_om1</t>
   </si>
   <si>
     <t xml:space="preserve">maxage</t>
@@ -650,9 +650,15 @@
     <t xml:space="preserve">R0</t>
   </si>
   <si>
+    <t xml:space="preserve">From SRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">From Hoef and Bayer 1983</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2</t>
   </si>
   <si>
@@ -662,9 +668,15 @@
     <t xml:space="preserve">Msd</t>
   </si>
   <si>
+    <t xml:space="preserve">Assume moderate variability in natural mortality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mgrad</t>
   </si>
   <si>
+    <t xml:space="preserve">No persistent trend in natural mortality</t>
+  </si>
+  <si>
     <t xml:space="preserve">h</t>
   </si>
   <si>
@@ -674,22 +686,34 @@
     <t xml:space="preserve">SRrel</t>
   </si>
   <si>
+    <t xml:space="preserve">Beverton-Holt recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perr</t>
   </si>
   <si>
+    <t xml:space="preserve">Very low interannual variability in recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC</t>
   </si>
   <si>
+    <t xml:space="preserve">Autocorrelation in recruitment deviates is moderate – from SRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Period</t>
   </si>
   <si>
+    <t xml:space="preserve">No periodic recruitment – implemented in OM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amplitude</t>
   </si>
   <si>
     <t xml:space="preserve">Linf</t>
   </si>
   <si>
-    <t xml:space="preserve">From the von Bertalaffy model - horn length</t>
+    <t xml:space="preserve">From the von Bertalaffy model – calculated from age-length relationships</t>
   </si>
   <si>
     <t xml:space="preserve">K</t>
@@ -704,22 +728,31 @@
     <t xml:space="preserve">Ksd</t>
   </si>
   <si>
-    <t xml:space="preserve">numbers model</t>
+    <t xml:space="preserve">No change in K</t>
   </si>
   <si>
     <t xml:space="preserve">Kgrad</t>
   </si>
   <si>
+    <t xml:space="preserve">No gradual change in K – implemented in OM3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linfsd</t>
   </si>
   <si>
+    <t xml:space="preserve">No SD in Linf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linfgrad</t>
   </si>
   <si>
+    <t xml:space="preserve">No gradual change in Linf</t>
+  </si>
+  <si>
     <t xml:space="preserve">L50</t>
   </si>
   <si>
-    <t xml:space="preserve">Horn length at 50% maturity between 3/4 curl and full curl (avg. 90cm)</t>
+    <t xml:space="preserve">Horn length at 50% maturity between 3/4 curl and full curl (avg. 90cm), taken from harvest data</t>
   </si>
   <si>
     <t xml:space="preserve">L50_95</t>
@@ -731,19 +764,22 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">From SRA - current numbers 71% of unharvested</t>
+    <t xml:space="preserve">From SRA - current numbers ~71% of unharvested</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">numbers model, W=L</t>
+    <t xml:space="preserve">numbers model, W=1</t>
   </si>
   <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">Frac_area_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No MPA implemented; ignore</t>
   </si>
   <si>
     <t xml:space="preserve">Prob_staying</t>
@@ -980,6 +1016,9 @@
   </si>
   <si>
     <t xml:space="preserve">SizeLimSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StonesSheep_WMU42</t>
   </si>
   <si>
     <t xml:space="preserve">Agency</t>
@@ -1242,10 +1281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:C15"/>
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1281,13 +1320,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>294.046353731202</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="0" t="n">
         <v>4</v>
       </c>
@@ -1328,9 +1370,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.543004522130226</v>
@@ -1380,10 +1422,13 @@
       <c r="Q5" s="1" t="n">
         <v>1.20397280432594</v>
       </c>
+      <c r="S5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">B5+0.01</f>
@@ -1452,12 +1497,12 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.05</v>
@@ -1466,10 +1511,13 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1478,10 +1526,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.75</v>
@@ -1490,20 +1541,23 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.01</v>
@@ -1511,10 +1565,13 @@
       <c r="C12" s="0" t="n">
         <v>0.02</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -1522,20 +1579,29 @@
       <c r="C13" s="0" t="n">
         <v>0.65</v>
       </c>
+      <c r="E13" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>100</v>
@@ -1544,12 +1610,12 @@
         <v>135</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.32</v>
@@ -1558,12 +1624,12 @@
         <v>0.42</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-0.1</v>
@@ -1572,12 +1638,12 @@
         <v>0.1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.1</v>
@@ -1586,12 +1652,12 @@
         <v>0.12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1600,12 +1666,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1614,12 +1680,12 @@
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1628,12 +1694,12 @@
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1642,12 +1708,12 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>65</v>
@@ -1656,12 +1722,12 @@
         <v>80</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10</v>
@@ -1670,12 +1736,12 @@
         <v>30</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.65</v>
@@ -1684,34 +1750,34 @@
         <v>0.75</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.5</v>
@@ -1719,10 +1785,13 @@
       <c r="C29" s="0" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.5</v>
@@ -1730,10 +1799,13 @@
       <c r="C30" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="E30" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1742,15 +1814,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1773,39 +1845,39 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="B14:C15 C22"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1814,9 +1886,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>1</v>
@@ -1945,9 +2017,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.0375167731895695</v>
@@ -2076,9 +2148,9 @@
         <v>0.0405710330859456</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.0375167731895695</v>
@@ -2207,9 +2279,9 @@
         <v>0.0405710330859456</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2218,9 +2290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2229,9 +2301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2240,9 +2312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>75</v>
@@ -2251,12 +2323,12 @@
         <v>75</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>90</v>
@@ -2265,12 +2337,12 @@
         <v>90</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -2279,21 +2351,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2302,12 +2374,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2316,12 +2388,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -2330,66 +2402,66 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -2411,7 +2483,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="B14:C15 F16"/>
+      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2426,7 +2498,7 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -2435,14 +2507,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.01</v>
@@ -2454,7 +2526,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.01</v>
@@ -2463,7 +2535,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>40</v>
@@ -2475,7 +2547,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>40</v>
@@ -2487,7 +2559,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>41</v>
@@ -2499,7 +2571,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>41</v>
@@ -2511,7 +2583,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.05</v>
@@ -2523,7 +2595,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.2</v>
@@ -2532,7 +2604,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.05</v>
@@ -2544,7 +2616,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.025</v>
@@ -2556,7 +2628,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -2568,7 +2640,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.1</v>
@@ -2577,7 +2649,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.1</v>
@@ -2586,7 +2658,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.1</v>
@@ -2595,7 +2667,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.1</v>
@@ -2604,7 +2676,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.1</v>
@@ -2613,7 +2685,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.1</v>
@@ -2622,7 +2694,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.1</v>
@@ -2631,7 +2703,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.4</v>
@@ -2640,7 +2712,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.1</v>
@@ -2649,7 +2721,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.1</v>
@@ -2658,7 +2730,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.5</v>
@@ -2667,7 +2739,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.5</v>
@@ -2676,7 +2748,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.5</v>
@@ -2685,7 +2757,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.5</v>
@@ -2694,7 +2766,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.2</v>
@@ -2706,7 +2778,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.1</v>
@@ -2715,7 +2787,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.1</v>
@@ -2742,10 +2814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="B14:C15 C33"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2764,12 +2836,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1</v>
@@ -2778,9 +2850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.01</v>
@@ -2789,9 +2861,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>1</v>
@@ -2800,9 +2872,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.01</v>
@@ -2811,9 +2883,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>1</v>
@@ -2822,9 +2894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.01</v>
@@ -2833,6 +2905,7 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2850,10 +2923,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="B14:C15"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2872,30 +2945,30 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>57.824</v>
@@ -2903,7 +2976,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-124.228</v>
@@ -2911,52 +2984,54 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
